--- a/appmodel/app-model.xlsx
+++ b/appmodel/app-model.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navendusinha/PycharmProjects/neoWebUI/appmodel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEF4D6D-30C9-3642-A0C0-B37CA814F601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA78F743-CE91-8340-96BE-F695A003DA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="720" windowWidth="28040" windowHeight="17440" xr2:uid="{B230B229-1191-BA4F-B757-C9FE5A580652}"/>
+    <workbookView xWindow="4820" yWindow="720" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{B230B229-1191-BA4F-B757-C9FE5A580652}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
     <sheet name="Forms" sheetId="1" r:id="rId2"/>
     <sheet name="Views" sheetId="3" r:id="rId3"/>
+    <sheet name="Backend" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Appname</t>
   </si>
@@ -82,27 +105,6 @@
     <t>johndoe@email.com</t>
   </si>
   <si>
-    <t>ViewName</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>nav</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>tabview</t>
-  </si>
-  <si>
-    <t>navbar</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>parkingreq</t>
   </si>
   <si>
@@ -140,6 +142,18 @@
   </si>
   <si>
     <t>TestAppDB</t>
+  </si>
+  <si>
+    <t>DatabaseTables</t>
+  </si>
+  <si>
+    <t>COL#</t>
+  </si>
+  <si>
+    <t>ROW#</t>
+  </si>
+  <si>
+    <t>HEADER</t>
   </si>
 </sst>
 </file>
@@ -169,15 +183,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -185,14 +205,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -510,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B73665F-23BA-8E4D-A25B-C7DFF438AFC4}">
   <dimension ref="B1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -521,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
@@ -529,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +652,7 @@
   <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
@@ -608,58 +718,58 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -673,44 +783,206 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04CBEB2-07CA-4D4E-8E98-2CCD11B504C6}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="7"/>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="7"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="7"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="7"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="7"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="7"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="7"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="7"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="7"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="7"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="7"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="7"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="7"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="7"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="7"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="7"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="7"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="7"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="7"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="7"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="7"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B0635B-1A6B-4E4D-B464-016C4F031864}">
+  <dimension ref="B1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:B3">_xlfn.UNIQUE(Forms!B2:B8)</f>
+        <v>Auth</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="str">
+        <v>parkingreq</v>
       </c>
     </row>
   </sheetData>

--- a/appmodel/app-model.xlsx
+++ b/appmodel/app-model.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navendusinha/PycharmProjects/neoWebUI/appmodel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA78F743-CE91-8340-96BE-F695A003DA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C853DDDA-9064-0847-BE77-A475474C3741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4820" yWindow="720" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{B230B229-1191-BA4F-B757-C9FE5A580652}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
     <sheet name="Forms" sheetId="1" r:id="rId2"/>
-    <sheet name="Views" sheetId="3" r:id="rId3"/>
+    <sheet name="Queries" sheetId="5" r:id="rId3"/>
     <sheet name="Backend" sheetId="4" r:id="rId4"/>
+    <sheet name="Views" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Appname</t>
   </si>
@@ -78,9 +79,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Auth</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -150,10 +148,46 @@
     <t>COL#</t>
   </si>
   <si>
-    <t>ROW#</t>
-  </si>
-  <si>
     <t>HEADER</t>
+  </si>
+  <si>
+    <t>LOGO</t>
+  </si>
+  <si>
+    <t>SETTINGS</t>
+  </si>
+  <si>
+    <t>COL1</t>
+  </si>
+  <si>
+    <t>COL2</t>
+  </si>
+  <si>
+    <t>COL3</t>
+  </si>
+  <si>
+    <t>COL4</t>
+  </si>
+  <si>
+    <t>signin</t>
+  </si>
+  <si>
+    <t>stateful</t>
+  </si>
+  <si>
+    <t>timeseries</t>
+  </si>
+  <si>
+    <t>RecordType</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>distinct('License')</t>
   </si>
 </sst>
 </file>
@@ -183,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +230,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -285,24 +331,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -631,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
@@ -639,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -652,11 +719,12 @@
   <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -671,105 +739,105 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -782,174 +850,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04CBEB2-07CA-4D4E-8E98-2CCD11B504C6}">
-  <dimension ref="B1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CEE5AD-978B-C346-AB0D-436CE01C7E14}">
+  <dimension ref="B1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="4">
         <v>1</v>
       </c>
-      <c r="D1" s="5">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="7"/>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="7"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="7"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="7"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="7"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="7"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="7"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="7"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="7"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="7"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="7"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="7"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="7"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="7"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="7"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="7"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="7"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="7"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="7"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="7"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -958,34 +888,312 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B0635B-1A6B-4E4D-B464-016C4F031864}">
-  <dimension ref="B1:B3"/>
+  <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2:B3">_xlfn.UNIQUE(Forms!B2:B8)</f>
-        <v>Auth</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+        <v>signin</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="str">
         <v>parkingreq</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04CBEB2-07CA-4D4E-8E98-2CCD11B504C6}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f t="shared" ref="A4:A24" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/appmodel/app-model.xlsx
+++ b/appmodel/app-model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navendusinha/PycharmProjects/neoWebUI/appmodel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C853DDDA-9064-0847-BE77-A475474C3741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ABE4F2-D591-3244-B276-6DB36DCFA08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="720" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{B230B229-1191-BA4F-B757-C9FE5A580652}"/>
+    <workbookView xWindow="3660" yWindow="1200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{B230B229-1191-BA4F-B757-C9FE5A580652}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>Appname</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Doe</t>
   </si>
   <si>
-    <t>UserID</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>TestAppDB</t>
   </si>
   <si>
-    <t>DatabaseTables</t>
-  </si>
-  <si>
     <t>COL#</t>
   </si>
   <si>
@@ -169,6 +163,9 @@
     <t>COL4</t>
   </si>
   <si>
+    <t>authorization</t>
+  </si>
+  <si>
     <t>signin</t>
   </si>
   <si>
@@ -188,13 +185,31 @@
   </si>
   <si>
     <t>distinct('License')</t>
+  </si>
+  <si>
+    <t>API Signature</t>
+  </si>
+  <si>
+    <t>find({'</t>
+  </si>
+  <si>
+    <t>signup</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>TableName</t>
+  </si>
+  <si>
+    <t>userid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,6 +227,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,7 +374,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -366,10 +388,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -698,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
@@ -706,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -716,10 +739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC91076-B794-D24C-81D3-BD11A24F9ACB}">
-  <dimension ref="B1:E8"/>
+  <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -729,22 +752,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
+      <c r="E1" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -758,7 +781,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -772,78 +795,122 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
-        <v>22</v>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{5D92B118-9E6F-3A4F-BD5E-609150A1352B}"/>
+    <hyperlink ref="E5" r:id="rId1" display="johndoe@email.com" xr:uid="{5D92B118-9E6F-3A4F-BD5E-609150A1352B}"/>
+    <hyperlink ref="E10" r:id="rId2" xr:uid="{D65AD12B-2157-B548-B8F7-6D3CD4F58E1D}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{FE7300D1-33D2-3248-9DB9-F081C6B15198}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -851,34 +918,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CEE5AD-978B-C346-AB0D-436CE01C7E14}">
-  <dimension ref="B1:D2"/>
+  <dimension ref="B1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -888,45 +967,61 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B0635B-1A6B-4E4D-B464-016C4F031864}">
-  <dimension ref="B1:C3"/>
+  <dimension ref="B1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:B3">_xlfn.UNIQUE(Forms!B2:B8)</f>
-        <v>signin</v>
+        <f t="array" ref="B2:B4">_xlfn.UNIQUE(Forms!B2:B10)</f>
+        <v>signup</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="str">
         <v>parkingreq</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="str">
+        <v>signin</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -942,34 +1037,34 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -977,218 +1072,178 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A24" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/appmodel/app-model.xlsx
+++ b/appmodel/app-model.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navendusinha/PycharmProjects/neoWebUI/appmodel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ABE4F2-D591-3244-B276-6DB36DCFA08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6DC38F-978D-5B40-8633-C1FD43C290FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="1200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{B230B229-1191-BA4F-B757-C9FE5A580652}"/>
+    <workbookView xWindow="3660" yWindow="1200" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{B230B229-1191-BA4F-B757-C9FE5A580652}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
     <sheet name="Forms" sheetId="1" r:id="rId2"/>
-    <sheet name="Queries" sheetId="5" r:id="rId3"/>
-    <sheet name="Backend" sheetId="4" r:id="rId4"/>
-    <sheet name="Views" sheetId="3" r:id="rId5"/>
+    <sheet name="Backend" sheetId="4" r:id="rId3"/>
+    <sheet name="FormViews" sheetId="6" r:id="rId4"/>
+    <sheet name="Queries" sheetId="5" r:id="rId5"/>
+    <sheet name="Layout" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
   <si>
     <t>Appname</t>
   </si>
@@ -203,6 +204,78 @@
   </si>
   <si>
     <t>userid</t>
+  </si>
+  <si>
+    <t>prequest</t>
+  </si>
+  <si>
+    <t>parkingspot</t>
+  </si>
+  <si>
+    <t>parkingpolicy</t>
+  </si>
+  <si>
+    <t>reserved</t>
+  </si>
+  <si>
+    <t>parkingduration</t>
+  </si>
+  <si>
+    <t>SignIn</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>communitymodel</t>
+  </si>
+  <si>
+    <t>communityName</t>
+  </si>
+  <si>
+    <t>Good Community</t>
+  </si>
+  <si>
+    <t>geolocation</t>
+  </si>
+  <si>
+    <t>GeoLocation</t>
+  </si>
+  <si>
+    <t>memail</t>
+  </si>
+  <si>
+    <t>manageremail@email.com</t>
+  </si>
+  <si>
+    <t>mfirstname</t>
+  </si>
+  <si>
+    <t>mfirstname@rmail.com</t>
+  </si>
+  <si>
+    <t>mlastname</t>
+  </si>
+  <si>
+    <t>mlastname@email.com</t>
+  </si>
+  <si>
+    <t>communitymanager</t>
+  </si>
+  <si>
+    <t>cmodel</t>
+  </si>
+  <si>
+    <t>cmanager</t>
+  </si>
+  <si>
+    <t>TabView</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Manage</t>
   </si>
 </sst>
 </file>
@@ -240,7 +313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +335,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -393,6 +472,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -739,19 +820,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC91076-B794-D24C-81D3-BD11A24F9ACB}">
-  <dimension ref="B1:E11"/>
+  <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
@@ -764,8 +846,9 @@
       <c r="E1" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>43</v>
       </c>
@@ -779,7 +862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>43</v>
       </c>
@@ -793,7 +876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -807,7 +890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -821,7 +904,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -835,7 +918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -849,7 +932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -863,7 +946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -877,7 +960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -891,7 +974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>34</v>
       </c>
@@ -903,6 +986,118 @@
       </c>
       <c r="E11" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -911,17 +1106,228 @@
     <hyperlink ref="E5" r:id="rId1" display="johndoe@email.com" xr:uid="{5D92B118-9E6F-3A4F-BD5E-609150A1352B}"/>
     <hyperlink ref="E10" r:id="rId2" xr:uid="{D65AD12B-2157-B548-B8F7-6D3CD4F58E1D}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{FE7300D1-33D2-3248-9DB9-F081C6B15198}"/>
+    <hyperlink ref="E17" r:id="rId4" xr:uid="{A1DDB9D3-F2BA-EA46-B75C-B20F54E38FC4}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{4DA6E56C-101A-7643-91F2-4B6D1062A5FE}"/>
+    <hyperlink ref="E19" r:id="rId6" xr:uid="{BBF136EA-A408-9A44-A828-487E8B79DB52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B0635B-1A6B-4E4D-B464-016C4F031864}">
+  <dimension ref="B1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:B8">_xlfn.UNIQUE(Forms!B2:B100)</f>
+        <v>signup</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="str">
+        <v>parkingreq</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="str">
+        <v>signin</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="str">
+        <v>parkingpolicy</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="str">
+        <v>communitymodel</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="str">
+        <v>communitymanager</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28482AD0-F663-164D-B492-E8DD42487F91}">
+  <dimension ref="B1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="str" cm="1">
+        <f t="array" ref="B2:B8">_xlfn.UNIQUE(Forms!B2:B100)</f>
+        <v>signup</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="str">
+        <v>parkingreq</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="str">
+        <v>signin</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="str">
+        <v>parkingpolicy</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="str">
+        <v>communitymodel</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="str">
+        <v>communitymanager</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CEE5AD-978B-C346-AB0D-436CE01C7E14}">
   <dimension ref="B1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -965,72 +1371,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B0635B-1A6B-4E4D-B464-016C4F031864}">
-  <dimension ref="B1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:B4">_xlfn.UNIQUE(Forms!B2:B10)</f>
-        <v>signup</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="str">
-        <v>parkingreq</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="str">
-        <v>signin</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04CBEB2-07CA-4D4E-8E98-2CCD11B504C6}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B1" sqref="B1:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/appmodel/app-model.xlsx
+++ b/appmodel/app-model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navendusinha/PycharmProjects/neoWebUI/appmodel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6DC38F-978D-5B40-8633-C1FD43C290FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4B4048-E6A8-E34D-BA00-8DE75673CD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="1200" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{B230B229-1191-BA4F-B757-C9FE5A580652}"/>
+    <workbookView xWindow="3700" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{B230B229-1191-BA4F-B757-C9FE5A580652}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
   <si>
     <t>Appname</t>
   </si>
@@ -122,9 +122,6 @@
     <t>John Doe</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
     <t>tel</t>
   </si>
   <si>
@@ -221,9 +218,6 @@
     <t>parkingduration</t>
   </si>
   <si>
-    <t>SignIn</t>
-  </si>
-  <si>
     <t>policy</t>
   </si>
   <si>
@@ -266,9 +260,6 @@
     <t>cmodel</t>
   </si>
   <si>
-    <t>cmanager</t>
-  </si>
-  <si>
     <t>TabView</t>
   </si>
   <si>
@@ -276,6 +267,48 @@
   </si>
   <si>
     <t>Manage</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>CommunityName</t>
+  </si>
+  <si>
+    <t>handicap</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Car Model</t>
+  </si>
+  <si>
+    <t>Car Make</t>
+  </si>
+  <si>
+    <t>Mustang</t>
+  </si>
+  <si>
+    <t>License Plate</t>
+  </si>
+  <si>
+    <t>6AQW711</t>
   </si>
 </sst>
 </file>
@@ -313,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +374,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -469,11 +508,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -493,7 +536,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -781,7 +824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -802,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
@@ -810,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -820,10 +863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC91076-B794-D24C-81D3-BD11A24F9ACB}">
-  <dimension ref="B1:F19"/>
+  <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -844,13 +887,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -864,7 +907,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -878,10 +921,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -892,58 +935,58 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
+      <c r="E6" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
+      <c r="E7" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
+      <c r="E8" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -951,164 +994,250 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="E12">
-        <v>10</v>
+      <c r="E12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="15">
         <v>10</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>62</v>
+      <c r="E18" s="15">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>64</v>
+      <c r="E19" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" display="johndoe@email.com" xr:uid="{5D92B118-9E6F-3A4F-BD5E-609150A1352B}"/>
-    <hyperlink ref="E10" r:id="rId2" xr:uid="{D65AD12B-2157-B548-B8F7-6D3CD4F58E1D}"/>
+    <hyperlink ref="E7" r:id="rId1" display="johndoe@email.com" xr:uid="{5D92B118-9E6F-3A4F-BD5E-609150A1352B}"/>
+    <hyperlink ref="E15" r:id="rId2" xr:uid="{D65AD12B-2157-B548-B8F7-6D3CD4F58E1D}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{FE7300D1-33D2-3248-9DB9-F081C6B15198}"/>
-    <hyperlink ref="E17" r:id="rId4" xr:uid="{A1DDB9D3-F2BA-EA46-B75C-B20F54E38FC4}"/>
-    <hyperlink ref="E18" r:id="rId5" xr:uid="{4DA6E56C-101A-7643-91F2-4B6D1062A5FE}"/>
-    <hyperlink ref="E19" r:id="rId6" xr:uid="{BBF136EA-A408-9A44-A828-487E8B79DB52}"/>
+    <hyperlink ref="E22" r:id="rId4" xr:uid="{A1DDB9D3-F2BA-EA46-B75C-B20F54E38FC4}"/>
+    <hyperlink ref="E23" r:id="rId5" xr:uid="{4DA6E56C-101A-7643-91F2-4B6D1062A5FE}"/>
+    <hyperlink ref="E24" r:id="rId6" xr:uid="{BBF136EA-A408-9A44-A828-487E8B79DB52}"/>
+    <hyperlink ref="E14" r:id="rId7" xr:uid="{2860D772-C042-8F49-B11B-F0AB36533445}"/>
+    <hyperlink ref="E5" r:id="rId8" display="johndoe@email.com" xr:uid="{5EC315D2-C971-6E4B-9303-590492D718AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1116,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B0635B-1A6B-4E4D-B464-016C4F031864}">
-  <dimension ref="B1:E8"/>
+  <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,32 +1259,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
+      <c r="C1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:B8">_xlfn.UNIQUE(Forms!B2:B100)</f>
+        <f t="array" ref="B2:B7">_xlfn.UNIQUE(Forms!B2:B25)</f>
         <v>signup</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
@@ -1163,13 +1292,13 @@
         <v>parkingreq</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -1177,13 +1306,13 @@
         <v>signin</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -1191,46 +1320,41 @@
         <v>parkingpolicy</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="str">
-        <v>communitymodel</v>
+        <v>communitymanager</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" t="str">
-        <v>communitymanager</v>
+        <v>communitymodel</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
         <v>67</v>
-      </c>
-      <c r="E7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1241,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28482AD0-F663-164D-B492-E8DD42487F91}">
-  <dimension ref="B1:D8"/>
+  <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1259,17 +1383,17 @@
         <v>2</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:B8">_xlfn.UNIQUE(Forms!B2:B100)</f>
+        <f t="array" ref="B2:B6">_xlfn.UNIQUE(Forms!B2:B24)</f>
         <v>signup</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
@@ -1277,7 +1401,7 @@
         <v>parkingreq</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
@@ -1285,7 +1409,7 @@
         <v>signin</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -1293,28 +1417,15 @@
         <v>parkingpolicy</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="str">
-        <v>communitymodel</v>
+        <v>communitymanager</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="str">
-        <v>communitymanager</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1438,7 @@
   <dimension ref="B1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1341,13 +1452,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
@@ -1355,7 +1466,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
@@ -1363,7 +1474,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1383,19 +1494,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1403,14 +1514,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
